--- a/source_code/naverfinance.xlsx
+++ b/source_code/naverfinance.xlsx
@@ -471,17 +471,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,384.30</t>
+          <t>1,368.50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t xml:space="preserve"> 2.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>상승</t>
+          <t>하락</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -501,17 +501,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>894.16</t>
+          <t>918.49</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 3.54</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>하락</t>
+          <t>상승</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,499.89</t>
+          <t>1,479.28</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3.33</t>
+          <t>0.31</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>190.56</t>
+          <t>189.62</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">

--- a/source_code/naverfinance.xlsx
+++ b/source_code/naverfinance.xlsx
@@ -471,12 +471,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1,368.50</t>
+          <t>1,361.50</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 2.50</t>
+          <t xml:space="preserve"> 9.50</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -501,12 +501,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>918.49</t>
+          <t>929.22</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.40</t>
+          <t>12.13</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -531,12 +531,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,479.28</t>
+          <t>1,485.46</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.31</t>
+          <t>6.49</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -561,12 +561,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>189.62</t>
+          <t>190.02</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.53</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
